--- a/DateBase/orders/Dang Nguyen_2024-10-31.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-31.xlsx
@@ -860,6 +860,9 @@
       <c r="G2" t="str">
         <v>0302020201515151530102010111111111869510101112051010201010105510510</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
